--- a/docs/Figures/EnvironmentWorking.xlsx
+++ b/docs/Figures/EnvironmentWorking.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\docs\Figures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-135" windowWidth="23700" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="-60" yWindow="-135" windowWidth="23700" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="EnvironmentNodesAndPaths" sheetId="16" r:id="rId1"/>
-    <sheet name="EnvironmentVariables" sheetId="17" r:id="rId2"/>
-    <sheet name="EnvironmentWaterCurves" sheetId="18" r:id="rId3"/>
-    <sheet name="EnvironmentVerification" sheetId="20" r:id="rId4"/>
+    <sheet name="EnvironmentVariables" sheetId="17" r:id="rId1"/>
+    <sheet name="EnvironmentWaterCurves" sheetId="18" r:id="rId2"/>
+    <sheet name="EnvironmentVerification" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="JD_HEA5_2" localSheetId="1">EnvironmentVariables!$D$47</definedName>
+    <definedName name="JD_HEA5_2" localSheetId="0">EnvironmentVariables!$D$47</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
   <si>
     <t>Description</t>
   </si>
@@ -28,62 +32,7 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Temperature Source</t>
-  </si>
-  <si>
-    <t>Heat Flow Source</t>
-  </si>
-  <si>
-    <t>Nodes</t>
-  </si>
-  <si>
-    <t>Paths</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>Node Enum</t>
-  </si>
-  <si>
-    <t>Mapped to Compartment
-(None if Blank)</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Path Element</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>AmbientEnvironment</t>
-  </si>
-  <si>
-    <t>EnvironmentSkin</t>
-  </si>
-  <si>
-    <t>EnvironmentCore</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>Enclosure</t>
-  </si>
-  <si>
-    <t>AbsoluteReference</t>
-  </si>
-  <si>
-    <t>Heat Resistance</t>
   </si>
   <si>
     <t>Variable</t>
@@ -1386,12 +1335,6 @@
 [W/m2]</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
     <t>HeatCapacitancePerMass</t>
   </si>
   <si>
@@ -1459,23 +1402,18 @@
   </si>
   <si>
     <t>Circuit</t>
+  </si>
+  <si>
+    <t>Pulse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1508,21 +1446,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1687,7 +1610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,12 +1626,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1886,7 +1803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2101,10 +2018,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2120,28 +2037,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2154,7 +2049,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -2163,34 +2058,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2231,45 +2098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2311,19 +2139,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -2347,67 +2162,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2744,49 +2498,49 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2806,191 +2560,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2999,148 +2677,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3194,12 +2854,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3228,7 +2891,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3405,6 +3067,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A43E-4903-B5FC-5616274234AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3451,7 +3118,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3467,7 +3133,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3496,7 +3162,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3673,6 +3338,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6D5-46F1-B44B-0D8E70572192}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3719,7 +3389,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3735,7 +3404,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3764,7 +3433,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3941,6 +3609,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7264-4290-830D-2E43878F6594}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3987,7 +3660,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4019,7 +3691,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4051,7 +3729,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4083,7 +3767,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4146,7 +3836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4179,9 +3869,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4214,6 +3921,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4390,1453 +4114,1134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" customWidth="1"/>
-    <col min="3" max="4" width="23.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6" style="11" customWidth="1"/>
-    <col min="7" max="10" width="23.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="20">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="20">
-        <v>4</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="20">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="20">
-        <v>6</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="2:16" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="93"/>
-    </row>
-    <row r="15" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F17" s="29">
-        <v>2</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F18" s="29">
-        <v>3</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F19" s="29">
-        <v>4</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F20" s="29">
-        <v>5</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F21" s="29">
-        <v>6</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="29">
-        <v>7</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F23" s="29">
-        <v>8</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F24" s="29">
-        <v>8</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="6:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="32">
-        <v>8</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" spans="6:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F14:J14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="35" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="3" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="2:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="63"/>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="G5" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="63"/>
+      <c r="C6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="D6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="F6" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="G6" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="E7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="F7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="G7" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="63"/>
+      <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="D8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="47" t="s">
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="63"/>
+      <c r="C9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="D9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="E9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+      <c r="C10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="63"/>
+      <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="64"/>
+      <c r="C12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="66"/>
+      <c r="C14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="66"/>
+      <c r="C15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="66"/>
+      <c r="C16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B17" s="66"/>
+      <c r="C17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="66"/>
+      <c r="C18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="66"/>
+      <c r="C19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="66"/>
+      <c r="C20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="95"/>
-      <c r="C5" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="49" t="s">
+    </row>
+    <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="66"/>
+      <c r="C21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B22" s="66"/>
+      <c r="C22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="66"/>
+      <c r="C24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B25" s="66"/>
+      <c r="C25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="66"/>
+      <c r="C26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="66"/>
+      <c r="C27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B28" s="66"/>
+      <c r="C28" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B29" s="66"/>
+      <c r="C29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="95"/>
-      <c r="C6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="49" t="s">
+    </row>
+    <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B30" s="66"/>
+      <c r="C30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="66"/>
+      <c r="C31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="66"/>
+      <c r="C32" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="66"/>
+      <c r="C33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B34" s="66"/>
+      <c r="C34" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B35" s="66"/>
+      <c r="C35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="66"/>
+      <c r="C36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B37" s="66"/>
+      <c r="C37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="95"/>
-      <c r="C7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="95"/>
-      <c r="C8" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="95"/>
-      <c r="C9" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
-      <c r="C10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="95"/>
-      <c r="C11" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="96"/>
-      <c r="C12" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B17" s="98"/>
-      <c r="C17" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="98"/>
-      <c r="C21" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="98"/>
-      <c r="C22" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="98"/>
-      <c r="C23" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="98"/>
-      <c r="C24" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="98"/>
-      <c r="C26" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="98"/>
-      <c r="C28" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="98"/>
-      <c r="C29" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B30" s="98"/>
-      <c r="C30" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="98"/>
-      <c r="C31" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="49" t="s">
+    </row>
+    <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B38" s="66"/>
+      <c r="C38" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="98"/>
-      <c r="C32" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="H38" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B39" s="66"/>
+      <c r="C39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B33" s="98"/>
-      <c r="C33" s="47" t="s">
+      <c r="D39" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="H39" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="98"/>
-      <c r="C34" s="51" t="s">
+      <c r="D40" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="D41" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="51" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B42" s="66"/>
+      <c r="C42" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D42" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
-      <c r="C36" s="47" t="s">
+      <c r="H42" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D43" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="98"/>
-      <c r="C37" s="47" t="s">
+      <c r="D44" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49" t="s">
+      <c r="H44" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B45" s="66"/>
+      <c r="C45" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B38" s="98"/>
-      <c r="C38" s="47" t="s">
+      <c r="D45" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B39" s="98"/>
-      <c r="C39" s="47" t="s">
+      <c r="H45" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B46" s="66"/>
+      <c r="C46" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D46" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B47" s="66"/>
+      <c r="C47" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H39" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B40" s="98"/>
-      <c r="C40" s="51" t="s">
+      <c r="D47" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="66"/>
+      <c r="C48" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B41" s="98"/>
-      <c r="C41" s="51" t="s">
+      <c r="D48" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B42" s="98"/>
-      <c r="C42" s="51" t="s">
+      <c r="H48" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="66"/>
+      <c r="C49" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D49" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="98"/>
-      <c r="C43" s="51" t="s">
+      <c r="H49" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D50" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="98"/>
-      <c r="C44" s="51" t="s">
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B51" s="66"/>
+      <c r="C51" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D51" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49" t="s">
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B45" s="98"/>
-      <c r="C45" s="51" t="s">
+      <c r="D52" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="66"/>
+      <c r="C53" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49" t="s">
+      <c r="D53" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="H45" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="98"/>
-      <c r="C46" s="51" t="s">
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="66"/>
+      <c r="C54" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D54" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="98"/>
-      <c r="C47" s="47" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="66"/>
+      <c r="C55" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D55" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="98"/>
-      <c r="C48" s="47" t="s">
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B56" s="66"/>
+      <c r="C56" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D56" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49" t="s">
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="98"/>
-      <c r="C49" s="47" t="s">
+      <c r="H56" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="66"/>
+      <c r="C57" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D57" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49" t="s">
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="H49" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B50" s="98"/>
-      <c r="C50" s="47" t="s">
+      <c r="H57" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="66"/>
+      <c r="C58" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D58" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="98"/>
-      <c r="C51" s="47" t="s">
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="H58" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="66"/>
+      <c r="C59" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="98"/>
-      <c r="C52" s="47" t="s">
+      <c r="D59" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="98"/>
-      <c r="C53" s="47" t="s">
+      <c r="H59" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="66"/>
+      <c r="C60" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D60" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="98"/>
-      <c r="C54" s="47" t="s">
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="H60" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="66"/>
+      <c r="C61" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="98"/>
-      <c r="C55" s="47" t="s">
+      <c r="D61" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H55" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B56" s="98"/>
-      <c r="C56" s="51" t="s">
+      <c r="H61" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="67"/>
+      <c r="C62" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D62" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49" t="s">
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="H56" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="98"/>
-      <c r="C57" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="98"/>
-      <c r="C58" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="98"/>
-      <c r="C59" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="98"/>
-      <c r="C60" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H60" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="98"/>
-      <c r="C61" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="99"/>
-      <c r="C62" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="H62" s="56" t="s">
-        <v>61</v>
+      <c r="H62" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5849,7 +5254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
@@ -5861,871 +5266,871 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+      <c r="A2" s="35">
         <v>0.01</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="36">
         <v>0.6</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="36">
         <v>999.8</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="36">
         <v>4.21</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64">
+      <c r="A3" s="38">
         <v>5</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="39">
         <v>0.9</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="39">
         <v>1000</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="39">
         <v>4.2039999999999997</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="40">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64">
+      <c r="A4" s="38">
         <v>10</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="39">
         <v>1.2</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="39">
         <v>999.8</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="39">
         <v>1</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="39">
         <v>4.1929999999999996</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="40">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64">
+      <c r="A5" s="38">
         <v>15</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="39">
         <v>1.7</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="39">
         <v>999.2</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="39">
         <v>1</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="39">
         <v>4.1855000000000002</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="40">
         <v>0.223</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64">
+      <c r="A6" s="38">
         <v>20</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="39">
         <v>998.3</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="39">
         <v>1</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="39">
         <v>4.1829999999999998</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="40">
         <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64">
+      <c r="A7" s="38">
         <v>25</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="39">
         <v>3.2</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="39">
         <v>997.1</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="39">
         <v>1</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="39">
         <v>4.181</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="40">
         <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64">
+      <c r="A8" s="38">
         <v>30</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="39">
         <v>4.3</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="39">
         <v>995.7</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="39">
         <v>1</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="39">
         <v>4.1790000000000003</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="40">
         <v>0.438</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64">
+      <c r="A9" s="38">
         <v>35</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="39">
         <v>5.6</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="39">
         <v>994.1</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="39">
         <v>1.01</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="39">
         <v>4.1779999999999999</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="40">
         <v>0.505</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64">
+      <c r="A10" s="38">
         <v>40</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="39">
         <v>7.7</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="39">
         <v>992.3</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="39">
         <v>1.01</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="39">
         <v>4.1790000000000003</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="40">
         <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64">
+      <c r="A11" s="38">
         <v>45</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="39">
         <v>9.6</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="39">
         <v>990.2</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="39">
         <v>1.01</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="39">
         <v>4.181</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="40">
         <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64">
+      <c r="A12" s="38">
         <v>50</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="39">
         <v>12.5</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="39">
         <v>988</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="39">
         <v>1.01</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="39">
         <v>4.1820000000000004</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="40">
         <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64">
+      <c r="A13" s="38">
         <v>55</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="39">
         <v>15.7</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="39">
         <v>986</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="39">
         <v>1.01</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="39">
         <v>4.1829999999999998</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="40">
         <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64">
+      <c r="A14" s="38">
         <v>60</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="39">
         <v>20</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="39">
         <v>983</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="39">
         <v>1.02</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="39">
         <v>4.1849999999999996</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="40">
         <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
+      <c r="A15" s="38">
         <v>65</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="39">
         <v>25</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="39">
         <v>980</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="39">
         <v>1.02</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="39">
         <v>4.1879999999999997</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="40">
         <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64">
+      <c r="A16" s="38">
         <v>70</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="39">
         <v>31.3</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="39">
         <v>978</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="39">
         <v>1.02</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="39">
         <v>4.1909999999999998</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="40">
         <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64">
+      <c r="A17" s="38">
         <v>75</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="39">
         <v>38.6</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="39">
         <v>975</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="39">
         <v>1.03</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="39">
         <v>4.194</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="40">
         <v>1.016</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64">
+      <c r="A18" s="38">
         <v>80</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="39">
         <v>47.5</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="39">
         <v>972</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="39">
         <v>1.03</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="39">
         <v>4.1980000000000004</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="40">
         <v>1.0760000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64">
+      <c r="A19" s="38">
         <v>85</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="39">
         <v>57.8</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="39">
         <v>968</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="39">
         <v>1.03</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="39">
         <v>4.2030000000000003</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="40">
         <v>1.1339999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64">
+      <c r="A20" s="38">
         <v>90</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="39">
         <v>70</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="39">
         <v>965</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="39">
         <v>1.04</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="39">
         <v>4.2080000000000002</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="40">
         <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64">
+      <c r="A21" s="38">
         <v>95</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="39">
         <v>84.5</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="39">
         <v>962</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="39">
         <v>1.04</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="39">
         <v>4.2130000000000001</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="40">
         <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67">
+      <c r="A22" s="41">
         <v>100</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="42">
         <v>101.33</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="42">
         <v>958</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="42">
         <v>1.04</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="42">
         <v>4.2190000000000003</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="43">
         <v>1.3069999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61">
+      <c r="A27" s="35">
         <v>0.01</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="36">
         <v>0.6</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="36">
         <v>1.78</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="36">
         <v>1.792</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="36">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="36">
         <v>0</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="37">
         <v>13.67</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64">
+      <c r="A28" s="38">
         <v>5</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="39">
         <v>0.9</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="39">
         <v>1.52</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65">
+      <c r="D28" s="39"/>
+      <c r="E28" s="39">
         <v>1.6E-2</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="39">
         <v>21</v>
       </c>
-      <c r="G28" s="66"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64">
+      <c r="A29" s="38">
         <v>10</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="39">
         <v>1.2</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="39">
         <v>1.31</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="39">
         <v>1.304</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="39">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="39">
         <v>41.9</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="40">
         <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64">
+      <c r="A30" s="38">
         <v>15</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="39">
         <v>1.7</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="39">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39">
         <v>0.151</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="39">
         <v>62.9</v>
       </c>
-      <c r="G30" s="66"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64">
+      <c r="A31" s="38">
         <v>20</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="39">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="39">
         <v>1</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="39">
         <v>1.004</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="39">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="39">
         <v>83.8</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="40">
         <v>7.01</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64">
+      <c r="A32" s="38">
         <v>25</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="39">
         <v>3.2</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="39">
         <v>0.89</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="39">
         <v>104.8</v>
       </c>
-      <c r="G32" s="66"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64">
+      <c r="A33" s="38">
         <v>30</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="39">
         <v>4.3</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="39">
         <v>0.79800000000000004</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="39">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="39">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="39">
         <v>125.7</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="40">
         <v>5.43</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64">
+      <c r="A34" s="38">
         <v>35</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="39">
         <v>5.6</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="39">
         <v>0.71899999999999997</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39">
         <v>0.34499999999999997</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="39">
         <v>146.69999999999999</v>
       </c>
-      <c r="G34" s="66"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64">
+      <c r="A35" s="38">
         <v>40</v>
       </c>
-      <c r="B35" s="65">
+      <c r="B35" s="39">
         <v>7.7</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="39">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="39">
         <v>0.65800000000000003</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="39">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="39">
         <v>167.6</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="40">
         <v>4.34</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64">
+      <c r="A36" s="38">
         <v>45</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="39">
         <v>9.6</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="39">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39">
         <v>0.42</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="39">
         <v>188.6</v>
       </c>
-      <c r="G36" s="66"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64">
+      <c r="A37" s="38">
         <v>50</v>
       </c>
-      <c r="B37" s="65">
+      <c r="B37" s="39">
         <v>12.5</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="39">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="39">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="39">
         <v>0.45700000000000002</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="39">
         <v>209.6</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="40">
         <v>3.56</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64">
+      <c r="A38" s="38">
         <v>55</v>
       </c>
-      <c r="B38" s="65">
+      <c r="B38" s="39">
         <v>15.7</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="39">
         <v>0.504</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39">
         <v>0.48599999999999999</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="39">
         <v>230.5</v>
       </c>
-      <c r="G38" s="66"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64">
+      <c r="A39" s="38">
         <v>60</v>
       </c>
-      <c r="B39" s="65">
+      <c r="B39" s="39">
         <v>20</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="39">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="39">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="39">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="39">
         <v>251.5</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="40">
         <v>2.99</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64">
+      <c r="A40" s="38">
         <v>65</v>
       </c>
-      <c r="B40" s="65">
+      <c r="B40" s="39">
         <v>25</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="39">
         <v>0.434</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65">
+      <c r="D40" s="39"/>
+      <c r="E40" s="39">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F40" s="65">
+      <c r="F40" s="39">
         <v>272.39999999999998</v>
       </c>
-      <c r="G40" s="66"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64">
+      <c r="A41" s="38">
         <v>70</v>
       </c>
-      <c r="B41" s="65">
+      <c r="B41" s="39">
         <v>31.3</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="39">
         <v>0.40400000000000003</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="39">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="39">
         <v>0.58499999999999996</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="39">
         <v>293.39999999999998</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="40">
         <v>2.56</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64">
+      <c r="A42" s="38">
         <v>75</v>
       </c>
-      <c r="B42" s="65">
+      <c r="B42" s="39">
         <v>38.6</v>
       </c>
-      <c r="C42" s="65">
+      <c r="C42" s="39">
         <v>0.378</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39">
         <v>0.59599999999999997</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="39">
         <v>314.3</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64">
+      <c r="A43" s="38">
         <v>80</v>
       </c>
-      <c r="B43" s="65">
+      <c r="B43" s="39">
         <v>47.5</v>
       </c>
-      <c r="C43" s="65">
+      <c r="C43" s="39">
         <v>0.35499999999999998</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="39">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="39">
         <v>0.64300000000000002</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="39">
         <v>335.3</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="40">
         <v>2.23</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="64">
+      <c r="A44" s="38">
         <v>85</v>
       </c>
-      <c r="B44" s="65">
+      <c r="B44" s="39">
         <v>57.8</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="39">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="39">
         <v>356.2</v>
       </c>
-      <c r="G44" s="66"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64">
+      <c r="A45" s="38">
         <v>90</v>
       </c>
-      <c r="B45" s="65">
+      <c r="B45" s="39">
         <v>70</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="39">
         <v>0.314</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="39">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="39">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="39">
         <v>377.2</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="40">
         <v>1.96</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64">
+      <c r="A46" s="38">
         <v>95</v>
       </c>
-      <c r="B46" s="65">
+      <c r="B46" s="39">
         <v>84.5</v>
       </c>
-      <c r="C46" s="65">
+      <c r="C46" s="39">
         <v>0.29699999999999999</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39">
         <v>0.68700000000000006</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="39">
         <v>398.1</v>
       </c>
-      <c r="G46" s="66"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67">
+      <c r="A47" s="41">
         <v>100</v>
       </c>
-      <c r="B47" s="68">
+      <c r="B47" s="42">
         <v>101.33</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="42">
         <v>0.28100000000000003</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="42">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="42">
         <v>0.752</v>
       </c>
-      <c r="F47" s="68">
+      <c r="F47" s="42">
         <v>419.1</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="43">
         <v>1.75</v>
       </c>
     </row>
@@ -6737,12 +6142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6756,137 +6161,137 @@
   <sheetData>
     <row r="1" spans="5:22" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="V2" s="102"/>
+      <c r="E2" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="V2" s="70"/>
     </row>
     <row r="3" spans="5:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="107" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="110" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="117" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="N3" s="114"/>
-      <c r="O3" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="113" t="s">
-        <v>208</v>
-      </c>
-      <c r="R3" s="114"/>
-      <c r="S3" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="T3" s="118"/>
-      <c r="U3" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="V3" s="110"/>
+      <c r="E3" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="87"/>
+      <c r="M3" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="82"/>
+      <c r="O3" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="82"/>
+      <c r="S3" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="U3" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="78"/>
     </row>
     <row r="4" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E4" s="105"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="111"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="79"/>
     </row>
     <row r="5" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="106"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="M5" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="O5" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="P5" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q5" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="S5" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="T5" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="U5" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="V5" s="76" t="s">
-        <v>195</v>
+      <c r="E5" s="74"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="S5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="50" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.25">
@@ -6908,47 +6313,47 @@
       <c r="J6" s="8">
         <v>1.2</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="47">
         <v>28.96</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="51">
         <v>46.852899999999998</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="55">
         <v>29.58</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="59">
         <v>16.600200000000001</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="47">
         <v>32.24</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="51">
         <v>29.366499999999998</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="55">
         <v>6.25</v>
       </c>
-      <c r="R6" s="85">
+      <c r="R6" s="59">
         <v>5.4130200000000004</v>
       </c>
-      <c r="S6" s="73">
+      <c r="S6" s="47">
         <v>16.05</v>
       </c>
-      <c r="T6" s="85">
+      <c r="T6" s="59">
         <v>18.4603</v>
       </c>
-      <c r="U6" s="73">
+      <c r="U6" s="47">
         <f>$J6*58.2-SUM(M6,O6,Q6,S6)</f>
         <v>-14.279999999999987</v>
       </c>
-      <c r="V6" s="77">
+      <c r="V6" s="51">
         <f>$J6*58.2-SUM(N6,P6,R6,T6)</f>
         <v>-2.0000000006348273E-5</v>
       </c>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E7" s="70">
+      <c r="E7" s="44">
         <v>27</v>
       </c>
       <c r="F7" s="2">
@@ -6966,47 +6371,47 @@
       <c r="J7" s="3">
         <v>1.2</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="48">
         <v>30.97</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="52">
         <v>51.140099999999997</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="56">
         <v>16.71</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="60">
         <v>16.124099999999999</v>
       </c>
-      <c r="O7" s="74">
+      <c r="O7" s="48">
         <v>19.05</v>
       </c>
-      <c r="P7" s="78">
+      <c r="P7" s="52">
         <v>29.835799999999999</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="56">
         <v>5.1100000000000003</v>
       </c>
-      <c r="R7" s="86">
+      <c r="R7" s="60">
         <v>5.2942799999999997</v>
       </c>
-      <c r="S7" s="74">
+      <c r="S7" s="48">
         <v>14.36</v>
       </c>
-      <c r="T7" s="86">
+      <c r="T7" s="60">
         <v>18.585899999999999</v>
       </c>
-      <c r="U7" s="74">
+      <c r="U7" s="48">
         <f t="shared" ref="U7:U18" si="0">$J7*58.2-SUM(M7,O7,Q7,S7)</f>
         <v>14.61</v>
       </c>
-      <c r="V7" s="78">
+      <c r="V7" s="52">
         <f t="shared" ref="V7:V18" si="1">$J7*58.2-SUM(N7,P7,R7,T7)</f>
         <v>-7.9999999996971383E-5</v>
       </c>
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E8" s="70">
+      <c r="E8" s="44">
         <v>27</v>
       </c>
       <c r="F8" s="2">
@@ -7024,47 +6429,47 @@
       <c r="J8" s="3">
         <v>1.2</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="48">
         <v>30.48</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="52">
         <v>45.4206</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="56">
         <v>25.38</v>
       </c>
-      <c r="N8" s="86">
+      <c r="N8" s="60">
         <v>23.785399999999999</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="48">
         <v>16.670000000000002</v>
       </c>
-      <c r="P8" s="78">
+      <c r="P8" s="52">
         <v>22.146899999999999</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="56">
         <v>5.1100000000000003</v>
       </c>
-      <c r="R8" s="86">
+      <c r="R8" s="60">
         <v>5.2942799999999997</v>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="48">
         <v>14.36</v>
       </c>
-      <c r="T8" s="86">
+      <c r="T8" s="60">
         <v>18.613499999999998</v>
       </c>
-      <c r="U8" s="74">
+      <c r="U8" s="48">
         <f t="shared" si="0"/>
         <v>8.3200000000000074</v>
       </c>
-      <c r="V8" s="78">
+      <c r="V8" s="52">
         <f t="shared" si="1"/>
         <v>-7.9999999996971383E-5</v>
       </c>
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="70">
+      <c r="E9" s="44">
         <v>23.5</v>
       </c>
       <c r="F9" s="2">
@@ -7082,47 +6487,47 @@
       <c r="J9" s="3">
         <v>1.2</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="48">
         <v>29.99</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="52">
         <v>49.165199999999999</v>
       </c>
-      <c r="M9" s="82">
+      <c r="M9" s="56">
         <v>27.3</v>
       </c>
-      <c r="N9" s="86">
+      <c r="N9" s="60">
         <v>17.142700000000001</v>
       </c>
-      <c r="O9" s="74">
+      <c r="O9" s="48">
         <v>21.26</v>
       </c>
-      <c r="P9" s="78">
+      <c r="P9" s="52">
         <v>28.763200000000001</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="56">
         <v>5.93</v>
       </c>
-      <c r="R9" s="86">
+      <c r="R9" s="60">
         <v>5.3773200000000001</v>
       </c>
-      <c r="S9" s="74">
+      <c r="S9" s="48">
         <v>15.58</v>
       </c>
-      <c r="T9" s="86">
+      <c r="T9" s="60">
         <v>18.556699999999999</v>
       </c>
-      <c r="U9" s="74">
+      <c r="U9" s="48">
         <f t="shared" si="0"/>
         <v>-0.23000000000000398</v>
       </c>
-      <c r="V9" s="78">
+      <c r="V9" s="52">
         <f t="shared" si="1"/>
         <v>7.9999999996971383E-5</v>
       </c>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E10" s="70">
+      <c r="E10" s="44">
         <v>23.5</v>
       </c>
       <c r="F10" s="2">
@@ -7140,47 +6545,47 @@
       <c r="J10" s="3">
         <v>1.2</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="48">
         <v>29.18</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="52">
         <v>43.030799999999999</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="56">
         <v>41.43</v>
       </c>
-      <c r="N10" s="86">
+      <c r="N10" s="60">
         <v>25.219000000000001</v>
       </c>
-      <c r="O10" s="74">
+      <c r="O10" s="48">
         <v>17.39</v>
       </c>
-      <c r="P10" s="78">
+      <c r="P10" s="52">
         <v>20.682099999999998</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="56">
         <v>5.93</v>
       </c>
-      <c r="R10" s="86">
+      <c r="R10" s="60">
         <v>5.3773200000000001</v>
       </c>
-      <c r="S10" s="74">
+      <c r="S10" s="48">
         <v>15.58</v>
       </c>
-      <c r="T10" s="86">
+      <c r="T10" s="60">
         <v>18.561599999999999</v>
       </c>
-      <c r="U10" s="74">
+      <c r="U10" s="48">
         <f t="shared" si="0"/>
         <v>-10.489999999999995</v>
       </c>
-      <c r="V10" s="78">
+      <c r="V10" s="52">
         <f t="shared" si="1"/>
         <v>-1.9999999992137418E-5</v>
       </c>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="70">
+      <c r="E11" s="44">
         <v>19</v>
       </c>
       <c r="F11" s="2">
@@ -7198,47 +6603,47 @@
       <c r="J11" s="3">
         <v>1.2</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="48">
         <v>25.13</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="52">
         <v>44.040700000000001</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="56">
         <v>26.96</v>
       </c>
-      <c r="N11" s="86">
+      <c r="N11" s="60">
         <v>16.7256</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="48">
         <v>28.67</v>
       </c>
-      <c r="P11" s="78">
+      <c r="P11" s="52">
         <v>28.7575</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="56">
         <v>7.38</v>
       </c>
-      <c r="R11" s="86">
+      <c r="R11" s="60">
         <v>6.0127100000000002</v>
       </c>
-      <c r="S11" s="74">
+      <c r="S11" s="48">
         <v>18.2</v>
       </c>
-      <c r="T11" s="86">
+      <c r="T11" s="60">
         <v>18.344200000000001</v>
       </c>
-      <c r="U11" s="74">
+      <c r="U11" s="48">
         <f t="shared" si="0"/>
         <v>-11.370000000000005</v>
       </c>
-      <c r="V11" s="78">
+      <c r="V11" s="52">
         <f t="shared" si="1"/>
         <v>-1.0000000003174137E-5</v>
       </c>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="70">
+      <c r="E12" s="44">
         <v>23.5</v>
       </c>
       <c r="F12" s="2">
@@ -7256,47 +6661,47 @@
       <c r="J12" s="3">
         <v>1.2</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="48">
         <v>27.71</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="52">
         <v>47.9129</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="56">
         <v>18.54</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="60">
         <v>16.3063</v>
       </c>
-      <c r="O12" s="74">
+      <c r="O12" s="48">
         <v>20.43</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="52">
         <v>29.208200000000001</v>
       </c>
-      <c r="Q12" s="82">
+      <c r="Q12" s="56">
         <v>6.61</v>
       </c>
-      <c r="R12" s="86">
+      <c r="R12" s="60">
         <v>5.8976499999999996</v>
       </c>
-      <c r="S12" s="74">
+      <c r="S12" s="48">
         <v>17.350000000000001</v>
       </c>
-      <c r="T12" s="86">
+      <c r="T12" s="60">
         <v>18.427900000000001</v>
       </c>
-      <c r="U12" s="74">
+      <c r="U12" s="48">
         <f t="shared" si="0"/>
         <v>6.9100000000000037</v>
       </c>
-      <c r="V12" s="78">
+      <c r="V12" s="52">
         <f t="shared" si="1"/>
         <v>-4.9999999987448973E-5</v>
       </c>
     </row>
     <row r="13" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E13" s="70">
+      <c r="E13" s="44">
         <v>23.5</v>
       </c>
       <c r="F13" s="2">
@@ -7314,47 +6719,47 @@
       <c r="J13" s="3">
         <v>1.2</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="48">
         <v>27</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="52">
         <v>42.070399999999999</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="56">
         <v>26.66</v>
       </c>
-      <c r="N13" s="86">
+      <c r="N13" s="60">
         <v>23.978899999999999</v>
       </c>
-      <c r="O13" s="74">
+      <c r="O13" s="48">
         <v>16.91</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="52">
         <v>21.593599999999999</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="56">
         <v>6.61</v>
       </c>
-      <c r="R13" s="86">
+      <c r="R13" s="60">
         <v>5.8976499999999996</v>
       </c>
-      <c r="S13" s="74">
+      <c r="S13" s="48">
         <v>17.350000000000001</v>
       </c>
-      <c r="T13" s="86">
+      <c r="T13" s="60">
         <v>18.369900000000001</v>
       </c>
-      <c r="U13" s="74">
+      <c r="U13" s="48">
         <f t="shared" si="0"/>
         <v>2.3100000000000023</v>
       </c>
-      <c r="V13" s="78">
+      <c r="V13" s="52">
         <f t="shared" si="1"/>
         <v>-4.9999999987448973E-5</v>
       </c>
     </row>
     <row r="14" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="70">
+      <c r="E14" s="44">
         <v>23</v>
       </c>
       <c r="F14" s="2">
@@ -7372,47 +6777,47 @@
       <c r="J14" s="3">
         <v>1.2</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="48">
         <v>26.83</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="52">
         <v>46.4664</v>
       </c>
-      <c r="M14" s="82">
+      <c r="M14" s="56">
         <v>16.850000000000001</v>
       </c>
-      <c r="N14" s="86">
+      <c r="N14" s="60">
         <v>15.673999999999999</v>
       </c>
-      <c r="O14" s="74">
+      <c r="O14" s="48">
         <v>27.8</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="52">
         <v>29.888400000000001</v>
       </c>
-      <c r="Q14" s="82">
+      <c r="Q14" s="56">
         <v>6.7</v>
       </c>
-      <c r="R14" s="86">
+      <c r="R14" s="60">
         <v>5.9103500000000002</v>
       </c>
-      <c r="S14" s="74">
+      <c r="S14" s="48">
         <v>17.46</v>
       </c>
-      <c r="T14" s="86">
+      <c r="T14" s="60">
         <v>18.3672</v>
       </c>
-      <c r="U14" s="74">
+      <c r="U14" s="48">
         <f t="shared" si="0"/>
         <v>1.0300000000000011</v>
       </c>
-      <c r="V14" s="78">
+      <c r="V14" s="52">
         <f t="shared" si="1"/>
         <v>5.0000000001659828E-5</v>
       </c>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="70">
+      <c r="E15" s="44">
         <v>23</v>
       </c>
       <c r="F15" s="2">
@@ -7430,47 +6835,47 @@
       <c r="J15" s="3">
         <v>1.2</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="48">
         <v>26.18</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="52">
         <v>40.810899999999997</v>
       </c>
-      <c r="M15" s="82">
+      <c r="M15" s="56">
         <v>24.2</v>
       </c>
-      <c r="N15" s="86">
+      <c r="N15" s="60">
         <v>22.998200000000001</v>
       </c>
-      <c r="O15" s="74">
+      <c r="O15" s="48">
         <v>24.6</v>
       </c>
-      <c r="P15" s="78">
+      <c r="P15" s="52">
         <v>22.614100000000001</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="56">
         <v>6.7</v>
       </c>
-      <c r="R15" s="86">
+      <c r="R15" s="60">
         <v>5.9103500000000002</v>
       </c>
-      <c r="S15" s="74">
+      <c r="S15" s="48">
         <v>17.46</v>
       </c>
-      <c r="T15" s="86">
+      <c r="T15" s="60">
         <v>18.317399999999999</v>
       </c>
-      <c r="U15" s="74">
+      <c r="U15" s="48">
         <f t="shared" si="0"/>
         <v>-3.1200000000000045</v>
       </c>
-      <c r="V15" s="78">
+      <c r="V15" s="52">
         <f t="shared" si="1"/>
         <v>-5.0000000001659828E-5</v>
       </c>
     </row>
     <row r="16" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="70">
+      <c r="E16" s="44">
         <v>22</v>
       </c>
       <c r="F16" s="2">
@@ -7488,47 +6893,47 @@
       <c r="J16" s="3">
         <v>1.6</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K16" s="48">
         <v>28.59</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="52">
         <v>57.711500000000001</v>
       </c>
-      <c r="M16" s="82">
+      <c r="M16" s="56">
         <v>27.73</v>
       </c>
-      <c r="N16" s="86">
+      <c r="N16" s="60">
         <v>23.853000000000002</v>
       </c>
-      <c r="O16" s="74">
+      <c r="O16" s="48">
         <v>30.47</v>
       </c>
-      <c r="P16" s="78">
+      <c r="P16" s="52">
         <v>44.471400000000003</v>
       </c>
-      <c r="Q16" s="82">
+      <c r="Q16" s="56">
         <v>8.33</v>
       </c>
-      <c r="R16" s="86">
+      <c r="R16" s="60">
         <v>5.4130200000000004</v>
       </c>
-      <c r="S16" s="74">
+      <c r="S16" s="48">
         <v>25.32</v>
       </c>
-      <c r="T16" s="86">
+      <c r="T16" s="60">
         <v>19.3826</v>
       </c>
-      <c r="U16" s="74">
+      <c r="U16" s="48">
         <f t="shared" si="0"/>
         <v>1.2700000000000102</v>
       </c>
-      <c r="V16" s="78">
+      <c r="V16" s="52">
         <f t="shared" si="1"/>
         <v>-1.9999999992137418E-5</v>
       </c>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E17" s="70">
+      <c r="E17" s="44">
         <v>27</v>
       </c>
       <c r="F17" s="2">
@@ -7546,47 +6951,47 @@
       <c r="J17" s="3">
         <v>1.6</v>
       </c>
-      <c r="K17" s="74">
+      <c r="K17" s="48">
         <v>30.59</v>
       </c>
-      <c r="L17" s="78">
+      <c r="L17" s="52">
         <v>61.648899999999998</v>
       </c>
-      <c r="M17" s="82">
+      <c r="M17" s="56">
         <v>15.1</v>
       </c>
-      <c r="N17" s="86">
+      <c r="N17" s="60">
         <v>23.1432</v>
       </c>
-      <c r="O17" s="74">
+      <c r="O17" s="48">
         <v>17.190000000000001</v>
       </c>
-      <c r="P17" s="78">
+      <c r="P17" s="52">
         <v>45.022599999999997</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="56">
         <v>6.81</v>
       </c>
-      <c r="R17" s="86">
+      <c r="R17" s="60">
         <v>5.2942799999999997</v>
       </c>
-      <c r="S17" s="74">
+      <c r="S17" s="48">
         <v>23.63</v>
       </c>
-      <c r="T17" s="86">
+      <c r="T17" s="60">
         <v>19.659800000000001</v>
       </c>
-      <c r="U17" s="74">
+      <c r="U17" s="48">
         <f t="shared" si="0"/>
         <v>30.39</v>
       </c>
-      <c r="V17" s="78">
+      <c r="V17" s="52">
         <f t="shared" si="1"/>
         <v>1.2000000000966793E-4</v>
       </c>
     </row>
     <row r="18" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="71">
+      <c r="E18" s="45">
         <v>27</v>
       </c>
       <c r="F18" s="4">
@@ -7604,41 +7009,41 @@
       <c r="J18" s="5">
         <v>1.6</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="49">
         <v>30.15</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="53">
         <v>53.816400000000002</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="57">
         <v>22.95</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="61">
         <v>34.6265</v>
       </c>
-      <c r="O18" s="75">
+      <c r="O18" s="49">
         <v>15.04</v>
       </c>
-      <c r="P18" s="79">
+      <c r="P18" s="53">
         <v>33.5715</v>
       </c>
-      <c r="Q18" s="83">
+      <c r="Q18" s="57">
         <v>6.81</v>
       </c>
-      <c r="R18" s="87">
+      <c r="R18" s="61">
         <v>5.2942799999999997</v>
       </c>
-      <c r="S18" s="75">
+      <c r="S18" s="49">
         <v>23.63</v>
       </c>
-      <c r="T18" s="87">
+      <c r="T18" s="61">
         <v>19.627800000000001</v>
       </c>
-      <c r="U18" s="75">
+      <c r="U18" s="49">
         <f t="shared" si="0"/>
         <v>24.690000000000012</v>
       </c>
-      <c r="V18" s="79">
+      <c r="V18" s="53">
         <f t="shared" si="1"/>
         <v>-7.9999999996971383E-5</v>
       </c>

--- a/docs/Figures/EnvironmentWorking.xlsx
+++ b/docs/Figures/EnvironmentWorking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-135" windowWidth="23700" windowHeight="11955"/>
+    <workbookView xWindow="-60" yWindow="-135" windowWidth="23700" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EnvironmentVariables" sheetId="17" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -1273,9 +1273,6 @@
   </si>
   <si>
     <t xml:space="preserve">ISO 7730:2005 </t>
-  </si>
-  <si>
-    <t>BioGears</t>
   </si>
   <si>
     <t>Inputs</t>
@@ -4116,7 +4113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:I63"/>
     </sheetView>
   </sheetViews>
@@ -4176,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4194,10 +4191,10 @@
         <v>17</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4215,10 +4212,10 @@
         <v>21</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4236,10 +4233,10 @@
         <v>25</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -4257,10 +4254,10 @@
         <v>29</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4276,10 +4273,10 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4295,10 +4292,10 @@
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4314,10 +4311,10 @@
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -4336,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4352,10 +4349,10 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4371,10 +4368,10 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4388,10 +4385,10 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4405,10 +4402,10 @@
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4422,10 +4419,10 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4439,10 +4436,10 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4456,10 +4453,10 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4473,10 +4470,10 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -4492,10 +4489,10 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4511,10 +4508,10 @@
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4530,10 +4527,10 @@
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4549,10 +4546,10 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4568,10 +4565,10 @@
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4587,10 +4584,10 @@
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4606,10 +4603,10 @@
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4628,7 +4625,7 @@
         <v>81</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4644,10 +4641,10 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4663,10 +4660,10 @@
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4682,10 +4679,10 @@
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4701,10 +4698,10 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4720,10 +4717,10 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4739,10 +4736,10 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4758,10 +4755,10 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -4777,10 +4774,10 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4796,10 +4793,10 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.25">
@@ -6146,8 +6143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:V18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6162,7 +6159,7 @@
     <row r="1" spans="5:22" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
@@ -6170,7 +6167,7 @@
       <c r="I2" s="69"/>
       <c r="J2" s="70"/>
       <c r="K2" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
@@ -6182,51 +6179,51 @@
       <c r="S2" s="69"/>
       <c r="T2" s="71"/>
       <c r="U2" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V2" s="70"/>
     </row>
     <row r="3" spans="5:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="G3" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="H3" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="I3" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="J3" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="K3" s="85" t="s">
         <v>186</v>
-      </c>
-      <c r="K3" s="85" t="s">
-        <v>187</v>
       </c>
       <c r="L3" s="87"/>
       <c r="M3" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N3" s="82"/>
       <c r="O3" s="85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" s="87"/>
       <c r="Q3" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R3" s="82"/>
       <c r="S3" s="85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T3" s="86"/>
       <c r="U3" s="72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V3" s="78"/>
     </row>
@@ -6261,37 +6258,37 @@
         <v>176</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M5" s="54" t="s">
         <v>176</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O5" s="46" t="s">
         <v>176</v>
       </c>
       <c r="P5" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="54" t="s">
         <v>176</v>
       </c>
       <c r="R5" s="58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S5" s="46" t="s">
         <v>176</v>
       </c>
       <c r="T5" s="58" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="U5" s="46" t="s">
         <v>176</v>
       </c>
       <c r="V5" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.25">
